--- a/biology/Origine et évolution du vivant/Opisthokonta/Opisthokonta.xlsx
+++ b/biology/Origine et évolution du vivant/Opisthokonta/Opisthokonta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Opisthocontes (Opisthokonta) sont un groupe d'eucaryotes unicontes regroupant des organismes très divers en apparence, résultant du rapprochement récent de plusieurs taxons, dont les champignons et les métazoaires. Il est fondé sur l'étude de plusieurs gènes analysés séparément, ce qui confère à l'existence des opisthocontes une certaine fiabilité. À partir de cette mise en évidence moléculaire, d'autres synapomorphies sont apparues comme évidentes, confirmant qu'il s'agit bien d'un groupe monophylétique. Les Opisthocontes se seraient séparés des autres Unicontes pendant le Proterozoique, il y a environ un milliard d'années.
 </t>
@@ -511,15 +523,17 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Tous les membres de ce super-règne dérivent d'un ancêtre eucaryote aquatique capable de se mouvoir à l'aide d'un flagelle. Ce sont des êtres vivants dont les organismes unicellulaires ou les cellules ciliées des organismes pluricellulaires sont propulsées par un flagelle unique, et non tractées (par opposition aux "antérocontes"). Cette caractéristique qu'on retrouve dans les cellules du sperme des animaux et des spores de champignons aquatiques, les Chytridiomycètes, donne son nom au groupe (οπίσθω- opisthō = derrière et κοντός kontós = flagelle). Les flagelles observés au sein d'autres taxons sont toujours situés sur la partie antérieure des cellules[2].
-Utilisation ancestrale de la chitine comme macromolécule structurale (voir la cuticule des arthropodes et la paroi squelettique des eumycètes)[2].
-Les crêtes mitochondriales sont aplaties (elles sont tubulaires chez les autres eucaryotes)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Tous les membres de ce super-règne dérivent d'un ancêtre eucaryote aquatique capable de se mouvoir à l'aide d'un flagelle. Ce sont des êtres vivants dont les organismes unicellulaires ou les cellules ciliées des organismes pluricellulaires sont propulsées par un flagelle unique, et non tractées (par opposition aux "antérocontes"). Cette caractéristique qu'on retrouve dans les cellules du sperme des animaux et des spores de champignons aquatiques, les Chytridiomycètes, donne son nom au groupe (οπίσθω- opisthō = derrière et κοντός kontós = flagelle). Les flagelles observés au sein d'autres taxons sont toujours situés sur la partie antérieure des cellules.
+Utilisation ancestrale de la chitine comme macromolécule structurale (voir la cuticule des arthropodes et la paroi squelettique des eumycètes).
+Les crêtes mitochondriales sont aplaties (elles sont tubulaires chez les autres eucaryotes).
 Le facteur d'élongation de la traduction eEF1A, qui est une des protéines les plus conservées, possède une insertion de 11 acides aminés mais pas chez les autres eucaryotes[réf. souhaitée].
 La thymidylate synthase et la dihydrofolate réductase sont deux enzymes séparées alors qu'ils sont fusionnés chez tous les autres eucaryotes[réf. nécessaire].
-Ils stockent leurs réserves carbonées sous forme de glycogène[3].
-Dans la mitochondrie, le codon UGA spécifie tryptophane au lieu de stop[4].</t>
+Ils stockent leurs réserves carbonées sous forme de glycogène.
+Dans la mitochondrie, le codon UGA spécifie tryptophane au lieu de stop.</t>
         </is>
       </c>
     </row>
@@ -547,9 +561,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cladogramme d’après une étude réalisée par Torruella en 2015[5],[6]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cladogramme d’après une étude réalisée par Torruella en 2015,:
 </t>
         </is>
       </c>
@@ -578,10 +594,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Opisthokonta regroupent deux grandes lignées d'organismes multicellulaires, les champignons (Fungi) et les animaux (Metazoa), mais aussi toute une série de lignées unicellulaires beaucoup moins connues, comme les choanoflagellés (Choanomonada), les Filasterea et les Mesomycetozoa[7].
-Autrefois inclus dans le règne des plantes, les champignons sont plus proches des animaux dans la classification phylogénétique actuelle. Ils forment avec eux l'essentiel du super-règne des opisthochontes. Plantes et champignons n'ont en commun, sur le plan phylogénétique, que le fait d'être des eucaryotes, et sur le plan physiologique, que leur immobilité. Les plantes sont des bicontes, êtres vivants dont les organismes unicellulaires ou les cellules ciliées des organismes pluricellulaires possèdent deux flagelles, tandis que les Mycètes sont unicontes, avec un flagelle unique. Les champignons ont des génomes plus proches des animaux, caractéristique qui se retrouve au niveau moléculaire (ils ont par exemple des parois cellulaires à base de chitine, molécule que l'on retrouve dans la cuticule des Arthropodes) et physiologique (animaux et champignons sont hétérotrophes, devant se nourrir de substances organiques qu'ils trouvent dans le milieu environnant et qui sont fabriquées directement ou indirectement par les végétaux autotrophes ; ils stockent leurs réserves carbonées sous forme de glycogène)[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Opisthokonta regroupent deux grandes lignées d'organismes multicellulaires, les champignons (Fungi) et les animaux (Metazoa), mais aussi toute une série de lignées unicellulaires beaucoup moins connues, comme les choanoflagellés (Choanomonada), les Filasterea et les Mesomycetozoa.
+Autrefois inclus dans le règne des plantes, les champignons sont plus proches des animaux dans la classification phylogénétique actuelle. Ils forment avec eux l'essentiel du super-règne des opisthochontes. Plantes et champignons n'ont en commun, sur le plan phylogénétique, que le fait d'être des eucaryotes, et sur le plan physiologique, que leur immobilité. Les plantes sont des bicontes, êtres vivants dont les organismes unicellulaires ou les cellules ciliées des organismes pluricellulaires possèdent deux flagelles, tandis que les Mycètes sont unicontes, avec un flagelle unique. Les champignons ont des génomes plus proches des animaux, caractéristique qui se retrouve au niveau moléculaire (ils ont par exemple des parois cellulaires à base de chitine, molécule que l'on retrouve dans la cuticule des Arthropodes) et physiologique (animaux et champignons sont hétérotrophes, devant se nourrir de substances organiques qu'ils trouvent dans le milieu environnant et qui sont fabriquées directement ou indirectement par les végétaux autotrophes ; ils stockent leurs réserves carbonées sous forme de glycogène).
 </t>
         </is>
       </c>
